--- a/biology/Médecine/Hypoglycémie_diabétique/Hypoglycémie_diabétique.xlsx
+++ b/biology/Médecine/Hypoglycémie_diabétique/Hypoglycémie_diabétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypoglyc%C3%A9mie_diab%C3%A9tique</t>
+          <t>Hypoglycémie_diabétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypoglycémie diabétique est une hypoglycémie (donc un glucose sanguin abaissé) qui se produit chez un patient diabétique. C'est l'un des types d'hypoglycémie les plus communs observés dans un service d'urgence ou un hôpital. En général, elle se produit lorsqu'un traitement hypoglycémiant (c'est-à-dire visant à abaisser la glycémie) s'avère excessif et entraîne une chute de la glycémie en dessous de sa limite inférieure. 
-À titre indicatif, l'hypoglycémie chez le diabétique est definie par une glycémie inférieure à 0,7 g·l-1[1].
+À titre indicatif, l'hypoglycémie chez le diabétique est definie par une glycémie inférieure à 0,7 g·l-1.
 L'hypoglycémie est une urgence vitale, elle ne passera jamais seule. Une hypoglycémie doit être traitée par un resucrage, en sucre rapide (pastilles de glucose, morceaux de sucre, de dextrose) complété par l'absorption de sucre lent (pain) pour stabiliser la glycémie. Le dextrose est idéal pour le resucrage car son assimilation est optimale[réf. souhaitée].
 Portion de texte anglais à traduire en français
 Texte anglais à traduire :
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypoglyc%C3%A9mie_diab%C3%A9tique</t>
+          <t>Hypoglycémie_diabétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +532,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Portion de texte anglais à traduire en français
